--- a/biology/Botanique/Pisonia_graciliscens/Pisonia_graciliscens.xlsx
+++ b/biology/Botanique/Pisonia_graciliscens/Pisonia_graciliscens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pisonia graciliscens est une espèce de plantes à fleurs du genre Pisonia, famille des Nyctaginaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pisonia graciliscens est un arbre ou arbuste persistant d'une hauteur de 4 à 5 mètres. Les feuilles sont ovales à elliptiques, d'une longueur de 5,5 à 20,5 centimètres et d'une largeur de 2,5 à 12,5 cm, plus ou moins coriaces, à la base cunéiforme, à l'apex aigu ou obtus, au pétiole glabre d'une longueur de 8 à 28 millimètres. Les fleurs sont unisexuées (dioécie), les mâles ont un périanthe infundibuliforme et sont vert jaunâtre, d'une longueur de 4 à 6 mm, les femelles ont un périanthe verdâtre d'une longueur de 3 à 4 mm, les fleurs sont groupées en des cymes globuleuses axillaires d'un diamètre de 60 à 180 mm. Les antocarpes sont ellipsoïdes à ovoïdes, d'une longueur de 20 à 34 mm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pisonia graciliscens est un arbre ou arbuste persistant d'une hauteur de 4 à 5 mètres. Les feuilles sont ovales à elliptiques, d'une longueur de 5,5 à 20,5 centimètres et d'une largeur de 2,5 à 12,5 cm, plus ou moins coriaces, à la base cunéiforme, à l'apex aigu ou obtus, au pétiole glabre d'une longueur de 8 à 28 millimètres. Les fleurs sont unisexuées (dioécie), les mâles ont un périanthe infundibuliforme et sont vert jaunâtre, d'une longueur de 4 à 6 mm, les femelles ont un périanthe verdâtre d'une longueur de 3 à 4 mm, les fleurs sont groupées en des cymes globuleuses axillaires d'un diamètre de 60 à 180 mm. Les antocarpes sont ellipsoïdes à ovoïdes, d'une longueur de 20 à 34 mm.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pisonia graciliscens est endémique de Tahiti[2].
-Elle se trouve dans les forêts sempervirentes humides[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pisonia graciliscens est endémique de Tahiti.
+Elle se trouve dans les forêts sempervirentes humides.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pisonia graciliscens est en danger critique d'extinction[3].
-Elle est menacée par une autre espèce de plante introduite, Miconia calvescens[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pisonia graciliscens est en danger critique d'extinction.
+Elle est menacée par une autre espèce de plante introduite, Miconia calvescens.
 </t>
         </is>
       </c>
